--- a/organizations.xlsx
+++ b/organizations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tn/Documents/vnw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE8C371-2964-8541-B8B4-502254B0BDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89F4B1-AFF0-9744-8FAF-CCC6FA130316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="5900" windowWidth="26620" windowHeight="17440" xr2:uid="{3AEF86A2-0BF4-9A4A-A74B-DD6D0120CF55}"/>
+    <workbookView xWindow="10400" yWindow="1580" windowWidth="40880" windowHeight="17440" xr2:uid="{3AEF86A2-0BF4-9A4A-A74B-DD6D0120CF55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,119 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Bang Tran</author>
+  </authors>
+  <commentList>
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{654E81E6-10A8-C647-8FE8-1586D7F20B9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://coyeu.antoanthongtin.gov.vn/tin/nguoi-chien-sy-bao-dam-cong-tac-co-yeu-giua-trung-khoi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{A706F963-5FCF-144E-A9E4-1D87EECDB259}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://www.tayninh.gov.vn/vi/news/dua-nghi/phat-huy-truyen-thong-ve-vang-xay-dung-va-phat-trien-luc-luong-co-yeu-trong-tinh-hinh-moi-47976.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{669E6338-A3C0-D047-86BB-920EA7032644}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://www.qdnd.vn/quoc-phong-an-ninh/tin-tuc/bao-dam-tot-co-so-vat-chat-ky-thuat-phuc-vu-cong-tac-co-yeu-755860</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{76F6DD2F-D96B-C84A-8B91-FF9F96C1052C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>http://baoquankhu5.vn/ban-giao-trung-tam-bao-dam-ky-thuat-mat-ma-mien-trung-va-tay-nguyen-ve-cuc-co-yeu/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{4E1BE31B-D43C-0144-85A4-E013464EC93A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sáp nhập Cục Bản đồ và Cục Tác chiến, tổ chức lại thành Cục Tác chiến; 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://xaydungchinhsach.chinhphu.vn/sap-nhap-to-chuc-lai-cac-co-quan-thuoc-bo-quoc-phong-bo-tong-tham-muu-tong-cuc-chinh-tri-119250305200345134.htm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A106" authorId="0" shapeId="0" xr:uid="{C82F1DBC-32D9-3F4B-A529-4A5AB6CDDF43}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://xaydungchinhsach.chinhphu.vn/to-chuc-lai-nganh-tieu-chuan-do-luong-chat-luong-toan-quan-119250123175721842.htm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F107" authorId="0" shapeId="0" xr:uid="{E5FC3F18-4D3C-2244-BEC2-C04EAECA48DD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://xaydungchinhsach.chinhphu.vn/to-chuc-lai-nganh-tieu-chuan-do-luong-chat-luong-toan-quan-119250123175721842.htm</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="157">
   <si>
     <t>name</t>
   </si>
@@ -65,39 +176,9 @@
     <t>Bộ Quốc phòng</t>
   </si>
   <si>
-    <t>Tổng cục Chính trị</t>
-  </si>
-  <si>
-    <t>Cục Tuyên huấn</t>
-  </si>
-  <si>
-    <t>#003366</t>
-  </si>
-  <si>
-    <t>Ban Tổ chức Trung ương</t>
-  </si>
-  <si>
-    <t>BTCTW</t>
-  </si>
-  <si>
     <t>BQP</t>
   </si>
   <si>
-    <t>TCCT</t>
-  </si>
-  <si>
-    <t>Quốc phòng và an ninh</t>
-  </si>
-  <si>
-    <t>Chính trị trong quân đội</t>
-  </si>
-  <si>
-    <t>Công tác tuyên huấn trong QĐND</t>
-  </si>
-  <si>
-    <t>Phụ trách tổ chức cán bộ Đảng</t>
-  </si>
-  <si>
     <t>equivalent_names</t>
   </si>
   <si>
@@ -107,94 +188,436 @@
     <t>end_date</t>
   </si>
   <si>
-    <t>Cơ quan phụ trách quốc phòng</t>
-  </si>
-  <si>
-    <t>Cơ quan của Trung ương Đảng</t>
-  </si>
-  <si>
-    <t>Ban Tổ chức Đảng TW</t>
-  </si>
-  <si>
     <t>name_en</t>
   </si>
   <si>
-    <t>Ministry of Defense</t>
-  </si>
-  <si>
-    <t>Propaganda Bureau</t>
-  </si>
-  <si>
-    <t>Political General Bureau</t>
-  </si>
-  <si>
-    <t>Central organization Bureau</t>
-  </si>
-  <si>
     <t>Chính phủ</t>
   </si>
   <si>
-    <t>Đảng cộng sản</t>
-  </si>
-  <si>
-    <t>Quoc hoi</t>
-  </si>
-  <si>
-    <t>Mat tran to quoc</t>
-  </si>
-  <si>
-    <t>Hoi phu nu</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
-    <t>trung uong</t>
-  </si>
-  <si>
-    <t>tinh</t>
-  </si>
-  <si>
-    <t>hoi</t>
-  </si>
-  <si>
-    <t>Hoi lien hiep phu nu</t>
-  </si>
-  <si>
-    <t>Dang cong san</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>Hoi nong dan</t>
-  </si>
-  <si>
-    <t>Hội nhà báo</t>
-  </si>
-  <si>
-    <t>Hội nhà báo tỉnh Thanh Hoá</t>
-  </si>
-  <si>
-    <t>Hội nhà báo tỉnh Nghệ An</t>
-  </si>
-  <si>
-    <t>Ban Nội chính Trung ương</t>
-  </si>
-  <si>
-    <t>Hội nhà văn</t>
-  </si>
-  <si>
-    <t>Đảng cộng Sản</t>
-  </si>
-  <si>
-    <t>Uỷ ban nhân dân tỉnh Bình Phước</t>
-  </si>
-  <si>
-    <t>Uỷ ban</t>
-  </si>
-  <si>
-    <t>UBND tỉnh Bình Thuận</t>
+    <t>Quân ủy Trung ương</t>
+  </si>
+  <si>
+    <t>Văn phòng Quân ủy Trung ương - Văn phòng Bộ Quốc phòng</t>
+  </si>
+  <si>
+    <t>Ủy ban Kiểm tra Quân ủy Trung ương (Tổng cục Chính trị)</t>
+  </si>
+  <si>
+    <t>Hội đồng quốc phòng an ninh</t>
+  </si>
+  <si>
+    <t>Bộ Chính Trị</t>
+  </si>
+  <si>
+    <t>Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Phòng Tài chính</t>
+  </si>
+  <si>
+    <t>Đoàn xe Bộ Tổng Tham mưu</t>
+  </si>
+  <si>
+    <t>Nhà khách Bộ Tổng Tham mưu miền Bắc</t>
+  </si>
+  <si>
+    <t>Nhà khách Bộ Tổng Tham mưu miền Trung</t>
+  </si>
+  <si>
+    <t>Nhà khách Bộ Tổng Tham mưu miền Nam</t>
+  </si>
+  <si>
+    <t>Đại diện Văn phòng Bộ Tổng Tham mưu tại TP Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Đại diện Văn phòng Bộ Tổng Tham mưu tại TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Phòng Kế hoạch - Tổng hợp Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Phòng Văn thư Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Phòng Quân lực Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Phòng Lưu trữ Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Phòng Lễ tân Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Phòng Tài chính Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Phòng Công nghệ thông tin Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Văn phòng</t>
+  </si>
+  <si>
+    <t>Văn phòng Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Phòng Hành chính Bộ Tổng tham mưu</t>
+  </si>
+  <si>
+    <t>Ban Tài chính</t>
+  </si>
+  <si>
+    <t>Ban Hành chính</t>
+  </si>
+  <si>
+    <t>VPBTTM</t>
+  </si>
+  <si>
+    <t>Phòng Cán bộ Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Phòng Chính sách Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Phòng Tuyên huấn Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Phòng Tổ chức Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Phòng Điều tra Hình sự Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Phòng Bảo vệ an ninh Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Phòng Thi hành án dân sự Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Ban Tài chính Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Ban Hành chính Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Viện Kiểm sát Quân sự Thủ đô Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Viện Kiểm sát Quân sự khu vực Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Tòa án Quân sự Thủ đô Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Tòa án Quân sự khu vực Cục Chính trị</t>
+  </si>
+  <si>
+    <t>Nhà máy In Bộ Tổng tham mưu Cục Chính trị</t>
+  </si>
+  <si>
+    <t>CCT</t>
+  </si>
+  <si>
+    <t>Cục Hậu cần</t>
+  </si>
+  <si>
+    <t>Cục Cơ yếu</t>
+  </si>
+  <si>
+    <t>Trung tâm Bảo đảm kỹ thuật mật mã 1</t>
+  </si>
+  <si>
+    <t>Trung tâm Bảo đảm kỹ thuật mật mã 2</t>
+  </si>
+  <si>
+    <t>Trung tâm Bảo đảm kỹ thuật mật mã 3</t>
+  </si>
+  <si>
+    <t>Trung tâm bảo đảm kỹ thuật mật mã Miền Trung và Tây Nguyên</t>
+  </si>
+  <si>
+    <t>Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Huấn luyện chiến dịch - Nghiên cứu khoa học quân sự</t>
+  </si>
+  <si>
+    <t>Phòng Chính trị</t>
+  </si>
+  <si>
+    <t>Trung tâm Nghiên cứu huấn luyện chiến dịch T83</t>
+  </si>
+  <si>
+    <t>Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Lữ đoàn Tác chiến điện tử 96 (phụ trách miền Trung - Tây Nguyên)[3]</t>
+  </si>
+  <si>
+    <t>Cục Quân lực</t>
+  </si>
+  <si>
+    <t>Phòng Kế hoạch tổng hợp</t>
+  </si>
+  <si>
+    <t>Phòng Tổ chức biên chế</t>
+  </si>
+  <si>
+    <t>Phòng Quân số chính sách</t>
+  </si>
+  <si>
+    <t>Phòng Trang bị</t>
+  </si>
+  <si>
+    <t>Phòng Động viên</t>
+  </si>
+  <si>
+    <t>Ban Khoa học quân sự</t>
+  </si>
+  <si>
+    <t>Cục Quân huấn - Nhà trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cục Dân quân tự vệ </t>
+  </si>
+  <si>
+    <t>Trợ lý Chính trị</t>
+  </si>
+  <si>
+    <t>Phòng Tổ chức xây dựng lực lượng</t>
+  </si>
+  <si>
+    <t>Phòng Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Huấn luyện</t>
+  </si>
+  <si>
+    <t>Phòng Giáo dục quốc phòng</t>
+  </si>
+  <si>
+    <t>Cục Cứu hộ - Cứu nạn</t>
+  </si>
+  <si>
+    <t>Trung tâm Quốc gia điều hành tìm kiếm cứu nạn</t>
+  </si>
+  <si>
+    <t>Phòng Kế hoạch tổng hợp và hợp tác quốc tế</t>
+  </si>
+  <si>
+    <t>Phòng Tìm kiếm cứu nạn hàng không - hàng hải</t>
+  </si>
+  <si>
+    <t>Phòng Phòng chống thiên tai</t>
+  </si>
+  <si>
+    <t>Phòng Phòng chống cháy nổ - cứu sập</t>
+  </si>
+  <si>
+    <t>Phòng Ứng phó sự cố tràn dầu và hóa chất độc xạ</t>
+  </si>
+  <si>
+    <t>Cục Tiêu chuẩn - Đo lường - Chất lượng</t>
+  </si>
+  <si>
+    <t>Phòng Tham mưu - Kế hoạch</t>
+  </si>
+  <si>
+    <t>Ban Hành chính - Hậu cần</t>
+  </si>
+  <si>
+    <t>Phòng Kỹ thuật - Vật tư</t>
+  </si>
+  <si>
+    <t>Phòng Quản lý tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>Phòng Quản lý đo lường</t>
+  </si>
+  <si>
+    <t>Phòng Quản lý chất lượng</t>
+  </si>
+  <si>
+    <t>Phòng Quản lý đăng kiểm quân sự</t>
+  </si>
+  <si>
+    <t>Trung tâm Đo lường</t>
+  </si>
+  <si>
+    <t>Trung tâm Sửa chữa phương tiện đo</t>
+  </si>
+  <si>
+    <t>Trung tâm Giám định chất lượng</t>
+  </si>
+  <si>
+    <t>Trung tâm Bồi dưỡng nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Trung tâm Tiêu chuẩn - Đo lường - Chất lượng 2 (TP HCM)</t>
+  </si>
+  <si>
+    <t>Trung tâm Tiêu chuẩn - Đo lường - Chất lượng 3 (TP Đà Nẵng)</t>
+  </si>
+  <si>
+    <t>Viện Khoa học và Công nghệ quân sự</t>
+  </si>
+  <si>
+    <t>Hội đồng Khoa học đào tạo</t>
+  </si>
+  <si>
+    <t>Thanh tra</t>
+  </si>
+  <si>
+    <t>Uỷ ban Kiểm tra</t>
+  </si>
+  <si>
+    <t>Phòng Đào tạo</t>
+  </si>
+  <si>
+    <t>Phòng Thông tin khoa học quân sự</t>
+  </si>
+  <si>
+    <t>Phòng Quản lý thiết kế và chất lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Phòng Hậu cần-Kỹ thuật</t>
+  </si>
+  <si>
+    <t>Tạp chí Nghiên cứu khoa học và công nghệ quân sự</t>
+  </si>
+  <si>
+    <t>Viện Tên lửa</t>
+  </si>
+  <si>
+    <t>Viện Radar</t>
+  </si>
+  <si>
+    <t>Viện Điện tử</t>
+  </si>
+  <si>
+    <t>Viện Công nghệ thông tin (MITI)</t>
+  </si>
+  <si>
+    <t>Viện Tự động hóa kỹ thuật quân sự (CAPITI)</t>
+  </si>
+  <si>
+    <t>Viện Hóa học - Vật liệu</t>
+  </si>
+  <si>
+    <t>Viện Vật lí kĩ thuật</t>
+  </si>
+  <si>
+    <t>Viện Công nghệ mới</t>
+  </si>
+  <si>
+    <t>Viện Vật lý - Y - Sinh học</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viện Nhiệt đới môi trường </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung tâm Công nghệ cơ khí chính xác </t>
+  </si>
+  <si>
+    <t>Cơ quan đại diện tại Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần Điện tử - Tin học - Hóa chất</t>
+  </si>
+  <si>
+    <t>Công ti Phát triển phần mềm và hỗ trợ công nghệ</t>
+  </si>
+  <si>
+    <t>Tập đoàn Hà Đô</t>
+  </si>
+  <si>
+    <t>Đoàn nghi lễ quân đội</t>
+  </si>
+  <si>
+    <t>Lữ đoàn 144</t>
+  </si>
+  <si>
+    <t>Công ti Trường An</t>
+  </si>
+  <si>
+    <t>Công ti 59</t>
+  </si>
+  <si>
+    <t>Công ti 207</t>
+  </si>
+  <si>
+    <t>Phòng Kế hoạch Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Chiến trường tổng hợp Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Quân chủng Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Quy hoạch Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Khoa học quân sự Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Tự động hóa chỉ huy Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Chính trị Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Bản đồ Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Ban Tài chính Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Ban Hành chính Cục Tác chiến</t>
+  </si>
+  <si>
+    <t>Phòng Tham mưu Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Phòng Chính trị Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Phòng Hậu cần Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Phòng Kỹ thuật Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Ban Tài chính Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Phòng Quân huấn Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Trung tâm 80 Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Lữ đoàn 87 Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Lữ đoàn 84 Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Lữ đoàn 98 Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Tiểu đoàn 842 (TP Đà Nẵng) Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Tiểu đoàn 843 (Quảng Nam) Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Trung tâm 95 Cục Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>20/01/1995</t>
   </si>
 </sst>
 </file>
@@ -204,7 +627,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,18 +644,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Lucida Grande"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,12 +743,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,25 +1091,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E170FF-ACA6-4B4C-8A42-72C6C639902F}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E170FF-ACA6-4B4C-8A42-72C6C639902F}">
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -619,16 +1126,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -637,248 +1144,1213 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1">
-        <v>16674</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1">
-        <v>18323</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1">
-        <v>16803</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11">
-        <v>1950</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>84</v>
+      </c>
+      <c r="F97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>85</v>
+      </c>
+      <c r="F98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+      <c r="F108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="F111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>95</v>
+      </c>
+      <c r="F113" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>96</v>
+      </c>
+      <c r="F114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>98</v>
+      </c>
+      <c r="F116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>99</v>
+      </c>
+      <c r="F117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>100</v>
+      </c>
+      <c r="F118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="F120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+      <c r="F121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>105</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>106</v>
+      </c>
+      <c r="F125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>107</v>
+      </c>
+      <c r="F126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>65</v>
+      </c>
+      <c r="F128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>109</v>
+      </c>
+      <c r="F130" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>110</v>
+      </c>
+      <c r="F131" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>111</v>
+      </c>
+      <c r="F133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>112</v>
+      </c>
+      <c r="F134" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>113</v>
+      </c>
+      <c r="F135" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>114</v>
+      </c>
+      <c r="F136" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>115</v>
+      </c>
+      <c r="F137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>116</v>
+      </c>
+      <c r="F138" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>117</v>
+      </c>
+      <c r="F139" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>118</v>
+      </c>
+      <c r="F140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>119</v>
+      </c>
+      <c r="F141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>120</v>
+      </c>
+      <c r="F142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>121</v>
+      </c>
+      <c r="F143" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>122</v>
+      </c>
+      <c r="F144" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>123</v>
+      </c>
+      <c r="F145" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>124</v>
+      </c>
+      <c r="F146" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>125</v>
+      </c>
+      <c r="F147" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>126</v>
+      </c>
+      <c r="F148" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>127</v>
+      </c>
+      <c r="F149" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>128</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>129</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>130</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>131</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>132</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/organizations.xlsx
+++ b/organizations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tn/Documents/vnw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89F4B1-AFF0-9744-8FAF-CCC6FA130316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA9FAE-47FC-4E44-97B7-E1E94A540E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10400" yWindow="1580" windowWidth="40880" windowHeight="17440" xr2:uid="{3AEF86A2-0BF4-9A4A-A74B-DD6D0120CF55}"/>
   </bookViews>
@@ -1095,18 +1095,18 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="68.33203125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1144,12 +1144,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -1184,12 +1184,12 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
